--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H2">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I2">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J2">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>1.910533719542889</v>
+        <v>2.975195645428223</v>
       </c>
       <c r="R2">
-        <v>17.194803475886</v>
+        <v>26.776760808854</v>
       </c>
       <c r="S2">
-        <v>0.01791431591382851</v>
+        <v>0.02482733515538236</v>
       </c>
       <c r="T2">
-        <v>0.01791431591382851</v>
+        <v>0.02482733515538235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H3">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I3">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J3">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
-        <v>12.75367140822289</v>
+        <v>20.80678797437022</v>
       </c>
       <c r="R3">
-        <v>114.783042674006</v>
+        <v>187.261091769332</v>
       </c>
       <c r="S3">
-        <v>0.1195861116351985</v>
+        <v>0.1736279425322691</v>
       </c>
       <c r="T3">
-        <v>0.1195861116351986</v>
+        <v>0.173627942532269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H4">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I4">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J4">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>0.2076377338583333</v>
+        <v>0.03911886818311112</v>
       </c>
       <c r="R4">
-        <v>1.868739604725</v>
+        <v>0.3520698136480001</v>
       </c>
       <c r="S4">
-        <v>0.001946936566426892</v>
+        <v>0.0003264381126578096</v>
       </c>
       <c r="T4">
-        <v>0.001946936566426892</v>
+        <v>0.0003264381126578096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H5">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I5">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J5">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>4.496386501162</v>
+        <v>7.334426932368667</v>
       </c>
       <c r="R5">
-        <v>40.467478510458</v>
+        <v>66.009842391318</v>
       </c>
       <c r="S5">
-        <v>0.04216083046770946</v>
+        <v>0.06120413489526023</v>
       </c>
       <c r="T5">
-        <v>0.04216083046770946</v>
+        <v>0.06120413489526023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H6">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I6">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J6">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N6">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q6">
-        <v>0.5523582098185555</v>
+        <v>0.0639886476568889</v>
       </c>
       <c r="R6">
-        <v>4.971223888367001</v>
+        <v>0.5758978289120001</v>
       </c>
       <c r="S6">
-        <v>0.005179243562711821</v>
+        <v>0.0005339708008642887</v>
       </c>
       <c r="T6">
-        <v>0.005179243562711821</v>
+        <v>0.0005339708008642886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.454042</v>
       </c>
       <c r="I7">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J7">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N7">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q7">
-        <v>4.189969687078667</v>
+        <v>3.999464860660668</v>
       </c>
       <c r="R7">
-        <v>37.709727183708</v>
+        <v>35.99518374594601</v>
       </c>
       <c r="S7">
-        <v>0.03928768169642737</v>
+        <v>0.03337463023326831</v>
       </c>
       <c r="T7">
-        <v>0.03928768169642737</v>
+        <v>0.0333746302332683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.454042</v>
       </c>
       <c r="I8">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J8">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q8">
-        <v>27.96993115211868</v>
+        <v>27.96993115211867</v>
       </c>
       <c r="R8">
-        <v>251.7293803690681</v>
+        <v>251.729380369068</v>
       </c>
       <c r="S8">
-        <v>0.262262936069493</v>
+        <v>0.2334027532117713</v>
       </c>
       <c r="T8">
-        <v>0.2622629360694931</v>
+        <v>0.2334027532117711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>2.454042</v>
       </c>
       <c r="I9">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J9">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N9">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q9">
-        <v>0.4553679434500001</v>
+        <v>0.05258630266133334</v>
       </c>
       <c r="R9">
-        <v>4.09831149105</v>
+        <v>0.473276723952</v>
       </c>
       <c r="S9">
-        <v>0.004269804354955574</v>
+        <v>0.000438820809233668</v>
       </c>
       <c r="T9">
-        <v>0.004269804354955575</v>
+        <v>0.0004388208092336678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.454042</v>
       </c>
       <c r="I10">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J10">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N10">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q10">
-        <v>9.860973898836003</v>
+        <v>9.859446666698002</v>
       </c>
       <c r="R10">
-        <v>88.748765089524</v>
+        <v>88.73502000028201</v>
       </c>
       <c r="S10">
-        <v>0.09246243593336367</v>
+        <v>0.08227485382914933</v>
       </c>
       <c r="T10">
-        <v>0.09246243593336369</v>
+        <v>0.08227485382914931</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>2.454042</v>
       </c>
       <c r="I11">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J11">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N11">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q11">
-        <v>1.211370483480667</v>
+        <v>0.08601798949866668</v>
       </c>
       <c r="R11">
-        <v>10.902334351326</v>
+        <v>0.7741619054880001</v>
       </c>
       <c r="S11">
-        <v>0.01135853992409617</v>
+        <v>0.0007178006790770826</v>
       </c>
       <c r="T11">
-        <v>0.01135853992409617</v>
+        <v>0.0007178006790770824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H12">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N12">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q12">
-        <v>1.505643423642</v>
+        <v>1.676164311296222</v>
       </c>
       <c r="R12">
-        <v>13.550790812778</v>
+        <v>15.085478801666</v>
       </c>
       <c r="S12">
-        <v>0.01411782041258844</v>
+        <v>0.01398721230181564</v>
       </c>
       <c r="T12">
-        <v>0.01411782041258845</v>
+        <v>0.01398721230181563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H13">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>102.577454</v>
       </c>
       <c r="O13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q13">
-        <v>10.050846675282</v>
+        <v>11.72211833831422</v>
       </c>
       <c r="R13">
-        <v>90.45762007753801</v>
+        <v>105.499065044828</v>
       </c>
       <c r="S13">
-        <v>0.09424279754954241</v>
+        <v>0.09781842789518226</v>
       </c>
       <c r="T13">
-        <v>0.09424279754954243</v>
+        <v>0.09781842789518223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3428273333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.028482</v>
+      </c>
+      <c r="I14">
+        <v>0.1467715334447304</v>
+      </c>
+      <c r="J14">
+        <v>0.1467715334447304</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.293949</v>
-      </c>
-      <c r="H14">
-        <v>0.8818469999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.1472024675547531</v>
-      </c>
-      <c r="J14">
-        <v>0.1472024675547531</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M14">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N14">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q14">
-        <v>0.163634059575</v>
+        <v>0.02203876939911111</v>
       </c>
       <c r="R14">
-        <v>1.472706536175</v>
+        <v>0.198348924592</v>
       </c>
       <c r="S14">
-        <v>0.001534331588866249</v>
+        <v>0.0001839085490477593</v>
       </c>
       <c r="T14">
-        <v>0.001534331588866249</v>
+        <v>0.0001839085490477592</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H15">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N15">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q15">
-        <v>3.543488762526</v>
+        <v>4.132065965724666</v>
       </c>
       <c r="R15">
-        <v>31.891398862734</v>
+        <v>37.18859369152199</v>
       </c>
       <c r="S15">
-        <v>0.03322588681877855</v>
+        <v>0.03448115648220819</v>
       </c>
       <c r="T15">
-        <v>0.03322588681877855</v>
+        <v>0.03448115648220819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H16">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N16">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q16">
-        <v>0.435299569749</v>
+        <v>0.03604989396088889</v>
       </c>
       <c r="R16">
-        <v>3.917696127741</v>
+        <v>0.324449045648</v>
       </c>
       <c r="S16">
-        <v>0.004081631184977449</v>
+        <v>0.0003008282164765542</v>
       </c>
       <c r="T16">
-        <v>0.00408163118497745</v>
+        <v>0.0003008282164765541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H17">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N17">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O17">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P17">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q17">
-        <v>1.659971332473778</v>
+        <v>1.601621364084333</v>
       </c>
       <c r="R17">
-        <v>14.939741992264</v>
+        <v>14.414592276759</v>
       </c>
       <c r="S17">
-        <v>0.0155648919219018</v>
+        <v>0.01336516825683211</v>
       </c>
       <c r="T17">
-        <v>0.0155648919219018</v>
+        <v>0.01336516825683211</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H18">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>102.577454</v>
       </c>
       <c r="O18">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P18">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q18">
-        <v>11.08105484079378</v>
+        <v>11.20080831959133</v>
       </c>
       <c r="R18">
-        <v>99.729493567144</v>
+        <v>100.807274876322</v>
       </c>
       <c r="S18">
-        <v>0.1039026503672144</v>
+        <v>0.09346821362454091</v>
       </c>
       <c r="T18">
-        <v>0.1039026503672144</v>
+        <v>0.09346821362454089</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H19">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N19">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O19">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P19">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q19">
-        <v>0.1804064917666666</v>
+        <v>0.02105865377866666</v>
       </c>
       <c r="R19">
-        <v>1.6236584259</v>
+        <v>0.189527884008</v>
       </c>
       <c r="S19">
-        <v>0.001691600024304632</v>
+        <v>0.000175729705738012</v>
       </c>
       <c r="T19">
-        <v>0.001691600024304632</v>
+        <v>0.000175729705738012</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H20">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N20">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O20">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P20">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q20">
-        <v>3.906695084887999</v>
+        <v>3.948303327966999</v>
       </c>
       <c r="R20">
-        <v>35.16025576399199</v>
+        <v>35.534729951703</v>
       </c>
       <c r="S20">
-        <v>0.03663152825506236</v>
+        <v>0.0329476988073634</v>
       </c>
       <c r="T20">
-        <v>0.03663152825506236</v>
+        <v>0.0329476988073634</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H21">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N21">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O21">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P21">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q21">
-        <v>0.4799176189231111</v>
+        <v>0.03444667086133333</v>
       </c>
       <c r="R21">
-        <v>4.319258570308</v>
+        <v>0.310020037752</v>
       </c>
       <c r="S21">
-        <v>0.004499996911888043</v>
+        <v>0.0002874496820992669</v>
       </c>
       <c r="T21">
-        <v>0.004499996911888043</v>
+        <v>0.0002874496820992669</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H22">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I22">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J22">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N22">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O22">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P22">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q22">
-        <v>0.9622662431284446</v>
+        <v>1.167781378716222</v>
       </c>
       <c r="R22">
-        <v>8.660396188156001</v>
+        <v>10.510032408446</v>
       </c>
       <c r="S22">
-        <v>0.009022788394826283</v>
+        <v>0.009744871643030777</v>
       </c>
       <c r="T22">
-        <v>0.009022788394826283</v>
+        <v>0.009744871643030775</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H23">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I23">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J23">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>102.577454</v>
       </c>
       <c r="O23">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P23">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q23">
-        <v>6.423559734408446</v>
+        <v>8.166783782674221</v>
       </c>
       <c r="R23">
-        <v>57.81203760967601</v>
+        <v>73.501054044068</v>
       </c>
       <c r="S23">
-        <v>0.06023116849310233</v>
+        <v>0.06814996466721798</v>
       </c>
       <c r="T23">
-        <v>0.06023116849310235</v>
+        <v>0.06814996466721797</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H24">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I24">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J24">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N24">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O24">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P24">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q24">
-        <v>0.1045795633166667</v>
+        <v>0.01535438043911111</v>
       </c>
       <c r="R24">
-        <v>0.9412160698500002</v>
+        <v>0.138189423952</v>
       </c>
       <c r="S24">
-        <v>0.0009806010311261305</v>
+        <v>0.0001281288340989726</v>
       </c>
       <c r="T24">
-        <v>0.0009806010311261308</v>
+        <v>0.0001281288340989726</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H25">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I25">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J25">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N25">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O25">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P25">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q25">
-        <v>2.264666099252</v>
+        <v>2.878804695864666</v>
       </c>
       <c r="R25">
-        <v>20.381994893268</v>
+        <v>25.909242262782</v>
       </c>
       <c r="S25">
-        <v>0.02123487459360034</v>
+        <v>0.02402297446924148</v>
       </c>
       <c r="T25">
-        <v>0.02123487459360034</v>
+        <v>0.02402297446924148</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H26">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I26">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J26">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N26">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O26">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P26">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q26">
-        <v>0.2782027105757778</v>
+        <v>0.02511591172088889</v>
       </c>
       <c r="R26">
-        <v>2.503824395182</v>
+        <v>0.226043205488</v>
       </c>
       <c r="S26">
-        <v>0.002608596328009485</v>
+        <v>0.0002095866061735092</v>
       </c>
       <c r="T26">
-        <v>0.002608596328009485</v>
+        <v>0.0002095866061735091</v>
       </c>
     </row>
   </sheetData>
